--- a/solutions/google/cloud/landing-zone/presales/infrastructure-costs.xlsx
+++ b/solutions/google/cloud/landing-zone/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1312,7 +1312,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1410,7 +1410,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
@@ -2047,7 +2047,7 @@
     <row r="18" ht="26" customHeight="1">
       <c r="A18" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B18" s="48" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="19" ht="26" customHeight="1">
       <c r="A19" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B19" s="44" t="inlineStr">
@@ -2290,232 +2290,36 @@
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="inlineStr">
-        <is>
-          <t>Architecture and Design</t>
-        </is>
-      </c>
-      <c r="C23" s="44" t="inlineStr">
-        <is>
-          <t>Landing zone architecture design and documentation</t>
-        </is>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F23" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G23" s="46">
-        <f>D23*F23</f>
-        <v/>
-      </c>
-      <c r="H23" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I23" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J23" s="46">
-        <f>G23</f>
-        <v/>
-      </c>
-      <c r="K23" s="44" t="inlineStr">
-        <is>
-          <t>One-time design effort</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B24" s="48" t="inlineStr">
-        <is>
-          <t>Implementation Services</t>
-        </is>
-      </c>
-      <c r="C24" s="48" t="inlineStr">
-        <is>
-          <t>Infrastructure deployment and configuration</t>
-        </is>
-      </c>
-      <c r="D24" s="49" t="n">
-        <v>160</v>
-      </c>
-      <c r="E24" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F24" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G24" s="50">
-        <f>D24*F24</f>
-        <v/>
-      </c>
-      <c r="H24" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I24" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J24" s="50">
-        <f>G24</f>
-        <v/>
-      </c>
-      <c r="K24" s="48" t="inlineStr">
-        <is>
-          <t>Initial implementation</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B25" s="44" t="inlineStr">
-        <is>
-          <t>Security Baseline Configuration</t>
-        </is>
-      </c>
-      <c r="C25" s="44" t="inlineStr">
-        <is>
-          <t>Security controls policy implementation and validation</t>
-        </is>
-      </c>
-      <c r="D25" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E25" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F25" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G25" s="46">
-        <f>D25*F25</f>
-        <v/>
-      </c>
-      <c r="H25" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I25" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J25" s="46">
-        <f>G25</f>
-        <v/>
-      </c>
-      <c r="K25" s="44" t="inlineStr">
-        <is>
-          <t>Security hardening</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B26" s="48" t="inlineStr">
-        <is>
-          <t>Training and Knowledge Transfer</t>
-        </is>
-      </c>
-      <c r="C26" s="48" t="inlineStr">
-        <is>
-          <t>Administrator and developer training</t>
-        </is>
-      </c>
-      <c r="D26" s="49" t="n">
-        <v>24</v>
-      </c>
-      <c r="E26" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F26" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G26" s="50">
-        <f>D26*F26</f>
-        <v/>
-      </c>
-      <c r="H26" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I26" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J26" s="50">
-        <f>G26</f>
-        <v/>
-      </c>
-      <c r="K26" s="48" t="inlineStr">
-        <is>
-          <t>Team enablement</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="26" customHeight="1">
-      <c r="A27" s="51" t="inlineStr">
+      <c r="A23" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B27" s="52" t="n"/>
-      <c r="C27" s="52" t="n"/>
-      <c r="D27" s="52" t="n"/>
-      <c r="E27" s="52" t="n"/>
-      <c r="F27" s="52" t="n"/>
-      <c r="G27" s="53">
-        <f>SUM(G3:G26)</f>
-        <v/>
-      </c>
-      <c r="H27" s="53">
-        <f>SUM(H3:H26)</f>
-        <v/>
-      </c>
-      <c r="I27" s="53">
-        <f>SUM(I3:I26)</f>
-        <v/>
-      </c>
-      <c r="J27" s="53">
-        <f>SUM(J3:J26)</f>
-        <v/>
-      </c>
-      <c r="K27" s="52" t="n"/>
+      <c r="B23" s="52" t="n"/>
+      <c r="C23" s="52" t="n"/>
+      <c r="D23" s="52" t="n"/>
+      <c r="E23" s="52" t="n"/>
+      <c r="F23" s="52" t="n"/>
+      <c r="G23" s="53">
+        <f>SUM(G3:G22)</f>
+        <v/>
+      </c>
+      <c r="H23" s="53">
+        <f>SUM(H3:H22)</f>
+        <v/>
+      </c>
+      <c r="I23" s="53">
+        <f>SUM(I3:I22)</f>
+        <v/>
+      </c>
+      <c r="J23" s="53">
+        <f>SUM(J3:J22)</f>
+        <v/>
+      </c>
+      <c r="K23" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K27"/>
+  <autoFilter ref="A2:K23"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2576,7 +2380,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2668,7 +2472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2733,7 +2537,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2824,69 +2628,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
